--- a/Team 8.xlsx
+++ b/Team 8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sathotak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\shafemoh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Days</t>
   </si>
@@ -53,28 +53,22 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>User Stories for sending new promos and list of new items to user</t>
-  </si>
-  <si>
-    <t>Page designing for shipping details</t>
-  </si>
-  <si>
-    <t>User Stories for delivering products</t>
-  </si>
-  <si>
-    <t>User stories for placing order</t>
-  </si>
-  <si>
-    <t>Day-1</t>
-  </si>
-  <si>
     <t>Day-2</t>
   </si>
   <si>
-    <t>Day-3</t>
-  </si>
-  <si>
-    <t>Day-4</t>
+    <t>Queries creation</t>
+  </si>
+  <si>
+    <t>Shipping adress Page designing</t>
+  </si>
+  <si>
+    <t>created POJO classes</t>
+  </si>
+  <si>
+    <t>Controller functionality</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -133,10 +127,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,7 +420,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,13 +446,13 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -470,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -482,65 +476,59 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
